--- a/src/attributions/attributions_saliency_traj_245.xlsx
+++ b/src/attributions/attributions_saliency_traj_245.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.517365257721394e-06</v>
+        <v>0.0005902127013541758</v>
       </c>
       <c r="B2" t="n">
-        <v>6.687558311568864e-07</v>
+        <v>0.007056009490042925</v>
       </c>
       <c r="C2" t="n">
-        <v>2.651729346325737e-06</v>
+        <v>0.0004209848411846906</v>
       </c>
       <c r="D2" t="n">
-        <v>1.939361254699179e-06</v>
+        <v>0.006821965333074331</v>
       </c>
       <c r="E2" t="n">
-        <v>6.44871420263371e-07</v>
+        <v>0.001773544820025563</v>
       </c>
       <c r="F2" t="n">
-        <v>1.049783236339863e-06</v>
+        <v>0.001495958305895329</v>
       </c>
       <c r="G2" t="n">
-        <v>1.563316686770122e-06</v>
+        <v>0.001391116296872497</v>
       </c>
       <c r="H2" t="n">
-        <v>6.316224698821316e-07</v>
+        <v>0.0001684908347669989</v>
       </c>
       <c r="I2" t="n">
-        <v>1.824074161049793e-06</v>
+        <v>0.000343343970598653</v>
       </c>
       <c r="J2" t="n">
-        <v>3.251499038015027e-06</v>
+        <v>0.0004997242358513176</v>
       </c>
       <c r="K2" t="n">
-        <v>7.19852664587961e-07</v>
+        <v>0.006173133384436369</v>
       </c>
       <c r="L2" t="n">
-        <v>2.007298917305889e-06</v>
+        <v>0.0003762263513635844</v>
       </c>
       <c r="M2" t="n">
-        <v>1.512768676548149e-06</v>
+        <v>0.00448606489226222</v>
       </c>
       <c r="N2" t="n">
-        <v>1.86170541383035e-06</v>
+        <v>0.001989910844713449</v>
       </c>
       <c r="O2" t="n">
-        <v>6.656789537373697e-07</v>
+        <v>0.001558850868605077</v>
       </c>
       <c r="P2" t="n">
-        <v>1.746642965372303e-06</v>
+        <v>0.00155197037383914</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.604454819760576e-07</v>
+        <v>0.001146181486546993</v>
       </c>
       <c r="R2" t="n">
-        <v>2.016368853219319e-06</v>
+        <v>0.0003941430477425456</v>
       </c>
       <c r="S2" t="n">
-        <v>6.542797592601346e-08</v>
+        <v>0.0007131129968911409</v>
       </c>
       <c r="T2" t="n">
-        <v>4.750164634970133e-07</v>
+        <v>0.0009002091828733683</v>
       </c>
       <c r="U2" t="n">
-        <v>2.058666126458775e-07</v>
+        <v>0.0001517312484793365</v>
       </c>
       <c r="V2" t="n">
-        <v>4.486980742512969e-07</v>
+        <v>0.0008268601959571242</v>
       </c>
       <c r="W2" t="n">
-        <v>1.266655090148561e-06</v>
+        <v>0.0001032215513987467</v>
       </c>
       <c r="X2" t="n">
-        <v>2.89103709860683e-08</v>
+        <v>0.001230558031238616</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.467095103180327e-07</v>
+        <v>0.0003776044759433717</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.226878319168463e-07</v>
+        <v>0.0008278198074549437</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.408140519743029e-07</v>
+        <v>0.0006085295462980866</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.252964523246192e-07</v>
+        <v>0.0006036736886017025</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.658067614902393e-07</v>
+        <v>0.0004192425403743982</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.500373964016035e-07</v>
+        <v>0.0005155991530045867</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.924685358924762e-07</v>
+        <v>0.001492432435043156</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.793774905920145e-07</v>
+        <v>0.0001629043981665745</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.350375762551266e-08</v>
+        <v>0.0007103510433807969</v>
       </c>
       <c r="AH2" t="n">
-        <v>4.322625954955583e-07</v>
+        <v>0.0001660012057982385</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.399938001777628e-07</v>
+        <v>0.0006228015990927815</v>
       </c>
       <c r="AJ2" t="n">
-        <v>4.485556246436317e-07</v>
+        <v>0.0005881193210370839</v>
       </c>
       <c r="AK2" t="n">
-        <v>9.156010492006317e-07</v>
+        <v>0.0002105348976328969</v>
       </c>
       <c r="AL2" t="n">
-        <v>8.018178050406277e-07</v>
+        <v>0.00137718056794256</v>
       </c>
       <c r="AM2" t="n">
-        <v>7.525038654421223e-07</v>
+        <v>0.0001091529557015747</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.543516863326658e-07</v>
+        <v>0.0002880623505916446</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.371652716552489e-07</v>
+        <v>0.0004098166828043759</v>
       </c>
       <c r="AP2" t="n">
-        <v>6.796201432734961e-07</v>
+        <v>0.0004669080080930144</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7.092504006322997e-08</v>
+        <v>8.637955761514604e-05</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.6473952036431e-07</v>
+        <v>5.22449663549196e-05</v>
       </c>
       <c r="AS2" t="n">
-        <v>5.995623837407038e-07</v>
+        <v>0.0008218265138566494</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.991205635931692e-06</v>
+        <v>0.001409748918376863</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.763859457554645e-07</v>
+        <v>0.004200208466500044</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.407667355124431e-06</v>
+        <v>0.0004382171609904617</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.541811359284111e-08</v>
+        <v>0.004174511879682541</v>
       </c>
       <c r="AX2" t="n">
-        <v>2.751123417965573e-07</v>
+        <v>0.001519067329354584</v>
       </c>
       <c r="AY2" t="n">
-        <v>4.597973202180583e-07</v>
+        <v>0.0003195934696123004</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6.000369126013538e-07</v>
+        <v>0.0004122906248085201</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.74397257524106e-06</v>
+        <v>1.205705302709248e-05</v>
       </c>
       <c r="BB2" t="n">
-        <v>8.246585139204399e-07</v>
+        <v>0.0005687860539183021</v>
       </c>
       <c r="BC2" t="n">
-        <v>5.41982558388554e-07</v>
+        <v>3.881921293213964e-05</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.565896236068511e-07</v>
+        <v>0.001714626676402986</v>
       </c>
       <c r="BE2" t="n">
-        <v>8.729392675377312e-07</v>
+        <v>0.001568825333379209</v>
       </c>
       <c r="BF2" t="n">
-        <v>2.424349645480106e-07</v>
+        <v>0.001057785237208009</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.163370626500182e-07</v>
+        <v>0.002038036240264773</v>
       </c>
       <c r="BH2" t="n">
-        <v>4.613461044300493e-07</v>
+        <v>0.0002884310961235315</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.079236540135753e-06</v>
+        <v>0.0008982939179986715</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.499765630796901e-06</v>
+        <v>0.0009573440183885396</v>
       </c>
       <c r="BK2" t="n">
-        <v>4.465158269795211e-07</v>
+        <v>0.000225823387154378</v>
       </c>
       <c r="BL2" t="n">
-        <v>8.934844686336874e-08</v>
+        <v>0.0007163718109950423</v>
       </c>
       <c r="BM2" t="n">
-        <v>6.292294187915104e-07</v>
+        <v>2.12330705835484e-05</v>
       </c>
       <c r="BN2" t="n">
-        <v>6.027059384905442e-07</v>
+        <v>0.0007263034931384027</v>
       </c>
       <c r="BO2" t="n">
-        <v>4.657783279071737e-07</v>
+        <v>0.0001170952018583193</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.27697603602428e-06</v>
+        <v>0.0002275115548400208</v>
       </c>
       <c r="BQ2" t="n">
-        <v>6.649582928730524e-07</v>
+        <v>0.0006326035363599658</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.649733292197197e-07</v>
+        <v>0.0004631099000107497</v>
       </c>
       <c r="BS2" t="n">
-        <v>2.208844591677916e-07</v>
+        <v>3.24439606629312e-05</v>
       </c>
       <c r="BT2" t="n">
-        <v>5.26893302321696e-08</v>
+        <v>0.0001272372901439667</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.430598786100745e-06</v>
+        <v>0.001689367927610874</v>
       </c>
       <c r="BV2" t="n">
-        <v>3.877814833685989e-07</v>
+        <v>0.002148294122889638</v>
       </c>
       <c r="BW2" t="n">
-        <v>5.221609171712771e-07</v>
+        <v>0.000453491578809917</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.039721041706798e-06</v>
+        <v>0.001455530524253845</v>
       </c>
       <c r="BY2" t="n">
-        <v>2.143501092177758e-07</v>
+        <v>0.0002324577362742275</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.130725877374061e-06</v>
+        <v>0.0007374808774329722</v>
       </c>
       <c r="CA2" t="n">
-        <v>8.393440964482579e-08</v>
+        <v>0.0002232496917713434</v>
       </c>
       <c r="CB2" t="n">
-        <v>9.074685181076347e-07</v>
+        <v>0.0004205510776955634</v>
       </c>
       <c r="CC2" t="n">
-        <v>3.347972921119435e-08</v>
+        <v>0.0008239059243351221</v>
       </c>
       <c r="CD2" t="n">
-        <v>7.358695484072086e-07</v>
+        <v>0.0002438765368424356</v>
       </c>
       <c r="CE2" t="n">
-        <v>8.743749049244798e-07</v>
+        <v>0.0009153722203336656</v>
       </c>
       <c r="CF2" t="n">
-        <v>4.524965788732516e-07</v>
+        <v>0.000611159426625818</v>
       </c>
       <c r="CG2" t="n">
-        <v>4.96341442612902e-07</v>
+        <v>0.001364771160297096</v>
       </c>
       <c r="CH2" t="n">
-        <v>3.551725455963606e-07</v>
+        <v>0.0001970587618416175</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.779168634641337e-08</v>
+        <v>0.0005649673985317349</v>
       </c>
       <c r="CJ2" t="n">
-        <v>4.325245299696689e-07</v>
+        <v>0.0001891103165689856</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.272820782105555e-07</v>
+        <v>3.391179052414373e-05</v>
       </c>
       <c r="CL2" t="n">
-        <v>5.598094077186033e-08</v>
+        <v>0.0006287976284511387</v>
       </c>
       <c r="CM2" t="n">
-        <v>3.362692382324894e-07</v>
+        <v>0.001469209091737866</v>
       </c>
       <c r="CN2" t="n">
-        <v>4.069397050443513e-07</v>
+        <v>1.667657488724217e-05</v>
       </c>
       <c r="CO2" t="n">
-        <v>2.451441787343356e-07</v>
+        <v>0.0004062755906488746</v>
       </c>
       <c r="CP2" t="n">
-        <v>8.032589562390058e-07</v>
+        <v>0.0007577707874588668</v>
       </c>
       <c r="CQ2" t="n">
-        <v>1.136438299909059e-06</v>
+        <v>7.293654925888404e-05</v>
       </c>
       <c r="CR2" t="n">
-        <v>2.95725328669505e-07</v>
+        <v>0.00121976260561496</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.936006128744339e-07</v>
+        <v>0.001481792307458818</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.294706635235343e-06</v>
+        <v>0.001232164911925793</v>
       </c>
       <c r="CU2" t="n">
-        <v>8.389851018364425e-07</v>
+        <v>0.0003390930942259729</v>
       </c>
       <c r="CV2" t="n">
-        <v>6.591432679670106e-07</v>
+        <v>0.000284941925201565</v>
       </c>
       <c r="CW2" t="n">
-        <v>8.082395765995898e-07</v>
+        <v>0.0009321712423115969</v>
       </c>
       <c r="CX2" t="n">
-        <v>3.921471716239466e-07</v>
+        <v>0.0008255620487034321</v>
       </c>
       <c r="CY2" t="n">
-        <v>3.767715668345772e-07</v>
+        <v>0.00148151267785579</v>
       </c>
       <c r="CZ2" t="n">
-        <v>7.999818762982613e-08</v>
+        <v>8.850375161273405e-05</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.128538684724845e-08</v>
+        <v>0.0005582187441177666</v>
       </c>
       <c r="DB2" t="n">
-        <v>3.583084549063642e-07</v>
+        <v>8.748178515816107e-05</v>
       </c>
       <c r="DC2" t="n">
-        <v>4.954275709678768e-07</v>
+        <v>0.0002061760751530528</v>
       </c>
       <c r="DD2" t="n">
-        <v>2.008628285921077e-07</v>
+        <v>0.0004846308729611337</v>
       </c>
       <c r="DE2" t="n">
-        <v>3.281402882748807e-07</v>
+        <v>0.0001648763718549162</v>
       </c>
       <c r="DF2" t="n">
-        <v>1.005706053547328e-06</v>
+        <v>0.001924591138958931</v>
       </c>
       <c r="DG2" t="n">
-        <v>2.641161245264811e-08</v>
+        <v>0.0004704227903857827</v>
       </c>
       <c r="DH2" t="n">
-        <v>1.058306793311203e-07</v>
+        <v>0.003543657483533025</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.666354449980645e-07</v>
+        <v>0.003099553287029266</v>
       </c>
       <c r="DJ2" t="n">
-        <v>6.51254822514602e-07</v>
+        <v>0.0001520778168924153</v>
       </c>
       <c r="DK2" t="n">
-        <v>4.003346987246914e-08</v>
+        <v>0.002098645316436887</v>
       </c>
       <c r="DL2" t="n">
-        <v>6.391180704667931e-07</v>
+        <v>0.001173100201413035</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.717553743674216e-07</v>
+        <v>7.437908789142966e-05</v>
       </c>
       <c r="DN2" t="n">
-        <v>5.919132561871265e-08</v>
+        <v>0.0004893625155091286</v>
       </c>
       <c r="DO2" t="n">
-        <v>7.203765335361823e-07</v>
+        <v>9.057021088665351e-05</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.192342153899517e-07</v>
+        <v>0.00074307358590886</v>
       </c>
       <c r="DQ2" t="n">
-        <v>2.073097817856251e-07</v>
+        <v>1.932510349433869e-05</v>
       </c>
       <c r="DR2" t="n">
-        <v>5.573713792728086e-07</v>
+        <v>0.0003992532438132912</v>
       </c>
       <c r="DS2" t="n">
-        <v>5.653198513755342e-07</v>
+        <v>0.0004668673500418663</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.905577704519601e-07</v>
+        <v>0.0002995718095917255</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.493871621960352e-07</v>
+        <v>9.610124106984586e-05</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.017623276311497e-06</v>
+        <v>0.0007420629845000803</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.229679125775874e-07</v>
+        <v>6.408528133761138e-05</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.964918905945524e-07</v>
+        <v>4.148157131567132e-06</v>
       </c>
       <c r="DY2" t="n">
-        <v>3.14487778041439e-07</v>
+        <v>0.0008132694056257606</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1.317960709457111e-07</v>
+        <v>0.0007843372877687216</v>
       </c>
       <c r="EA2" t="n">
-        <v>5.980649575576535e-07</v>
+        <v>1.408892057952471e-05</v>
       </c>
       <c r="EB2" t="n">
-        <v>6.075291025808838e-07</v>
+        <v>0.000184769116458483</v>
       </c>
       <c r="EC2" t="n">
-        <v>3.371786476691341e-07</v>
+        <v>0.0009841325227171183</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.175431975752872e-06</v>
+        <v>0.0003861980221699923</v>
       </c>
       <c r="EE2" t="n">
-        <v>4.351203415353666e-07</v>
+        <v>0.0004151583416387439</v>
       </c>
       <c r="EF2" t="n">
-        <v>7.610505008415203e-07</v>
+        <v>0.0004162710683885962</v>
       </c>
       <c r="EG2" t="n">
-        <v>1.242666940015624e-06</v>
+        <v>0.001095375628210604</v>
       </c>
       <c r="EH2" t="n">
-        <v>5.338445703273464e-07</v>
+        <v>0.00103950232733041</v>
       </c>
       <c r="EI2" t="n">
-        <v>4.944017177876958e-07</v>
+        <v>0.001285700825974345</v>
       </c>
       <c r="EJ2" t="n">
-        <v>4.314615864586813e-07</v>
+        <v>0.0003115487925242633</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.5095871219728e-07</v>
+        <v>0.0006853379891254008</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.308373498432047e-07</v>
+        <v>0.0001778493460733443</v>
       </c>
       <c r="EM2" t="n">
-        <v>6.12797123267228e-07</v>
+        <v>0.0004365531785879284</v>
       </c>
       <c r="EN2" t="n">
-        <v>2.129965537278622e-08</v>
+        <v>0.000396669638575986</v>
       </c>
       <c r="EO2" t="n">
-        <v>7.620434416821809e-08</v>
+        <v>0.0005776003235951066</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.307216393797717e-06</v>
+        <v>0.0008476742659695446</v>
       </c>
       <c r="EQ2" t="n">
-        <v>7.549762415237637e-08</v>
+        <v>0.001155403908342123</v>
       </c>
       <c r="ER2" t="n">
-        <v>5.719225555367302e-07</v>
+        <v>0.001139285159297287</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.148570731857035e-06</v>
+        <v>0.0005409209406934679</v>
       </c>
       <c r="ET2" t="n">
-        <v>6.624459274462424e-07</v>
+        <v>0.001817642711102962</v>
       </c>
       <c r="EU2" t="n">
-        <v>7.510433874813316e-07</v>
+        <v>0.0003672322200145572</v>
       </c>
       <c r="EV2" t="n">
-        <v>5.356579890758439e-08</v>
+        <v>0.0005174655234441161</v>
       </c>
       <c r="EW2" t="n">
-        <v>2.599970230221516e-07</v>
+        <v>3.939430462196469e-05</v>
       </c>
       <c r="EX2" t="n">
-        <v>6.303197324086796e-07</v>
+        <v>0.0001552883186377585</v>
       </c>
       <c r="EY2" t="n">
-        <v>6.659427072008839e-07</v>
+        <v>0.0009844393935054541</v>
       </c>
       <c r="EZ2" t="n">
-        <v>4.725644657810335e-07</v>
+        <v>0.0006660202634520829</v>
       </c>
       <c r="FA2" t="n">
-        <v>4.227377985444036e-07</v>
+        <v>0.001519395038485527</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.998806808956033e-08</v>
+        <v>0.0002995647664647549</v>
       </c>
       <c r="FC2" t="n">
-        <v>9.269217571272748e-08</v>
+        <v>0.0004884210065938532</v>
       </c>
       <c r="FD2" t="n">
-        <v>3.698530406381906e-07</v>
+        <v>0.0002335721219424158</v>
       </c>
       <c r="FE2" t="n">
-        <v>2.354364880829962e-07</v>
+        <v>0.0002304620866198093</v>
       </c>
       <c r="FF2" t="n">
-        <v>4.297753264381754e-08</v>
+        <v>0.0005558182019740343</v>
       </c>
       <c r="FG2" t="n">
-        <v>7.922756708467205e-07</v>
+        <v>9.914708789438009e-05</v>
       </c>
       <c r="FH2" t="n">
-        <v>6.744805887137773e-07</v>
+        <v>0.0006748571177013218</v>
       </c>
       <c r="FI2" t="n">
-        <v>5.740296842304815e-07</v>
+        <v>8.199006515496876e-06</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.002181306830607e-06</v>
+        <v>0.0009234974277205765</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.634842874409514e-07</v>
+        <v>0.0003760894178412855</v>
       </c>
       <c r="FL2" t="n">
-        <v>4.899738996755332e-07</v>
+        <v>0.0004973522736690938</v>
       </c>
       <c r="FM2" t="n">
-        <v>1.990296141229919e-07</v>
+        <v>0.0005614063120447099</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.631748460795279e-07</v>
+        <v>8.964005974121392e-05</v>
       </c>
       <c r="FO2" t="n">
-        <v>3.511886745855008e-07</v>
+        <v>0.0001693135563982651</v>
       </c>
       <c r="FP2" t="n">
-        <v>5.776652187705622e-07</v>
+        <v>0.0001679098058957607</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.232486056323978e-06</v>
+        <v>0.0014880639500916</v>
       </c>
       <c r="FR2" t="n">
-        <v>8.354767260243534e-07</v>
+        <v>0.001545571489259601</v>
       </c>
       <c r="FS2" t="n">
-        <v>7.334779752454779e-07</v>
+        <v>0.0003811880596913397</v>
       </c>
       <c r="FT2" t="n">
-        <v>6.221193871169817e-08</v>
+        <v>0.0008089217590168118</v>
       </c>
       <c r="FU2" t="n">
-        <v>3.402178094802366e-08</v>
+        <v>0.0005751490243710577</v>
       </c>
       <c r="FV2" t="n">
-        <v>4.196911618237209e-08</v>
+        <v>0.000205638338229619</v>
       </c>
       <c r="FW2" t="n">
-        <v>4.101962929325964e-07</v>
+        <v>0.0004247219476383179</v>
       </c>
       <c r="FX2" t="n">
-        <v>5.650967338510782e-08</v>
+        <v>0.0005102311260998249</v>
       </c>
       <c r="FY2" t="n">
-        <v>7.89769217135472e-07</v>
+        <v>0.0002335192257305607</v>
       </c>
       <c r="FZ2" t="n">
-        <v>7.353641535701172e-07</v>
+        <v>0.0004094079486094415</v>
       </c>
       <c r="GA2" t="n">
-        <v>6.333168585115345e-07</v>
+        <v>9.55013238126412e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>5.810035759168386e-07</v>
+        <v>0.0006778824026696384</v>
       </c>
       <c r="GC2" t="n">
-        <v>8.568981968437583e-08</v>
+        <v>0.0006130545516498387</v>
       </c>
       <c r="GD2" t="n">
-        <v>3.084983006829134e-07</v>
+        <v>0.0002492291096132249</v>
       </c>
       <c r="GE2" t="n">
-        <v>7.03551336300734e-07</v>
+        <v>0.002722714561969042</v>
       </c>
       <c r="GF2" t="n">
-        <v>1.173834220935532e-07</v>
+        <v>0.0005604800535365939</v>
       </c>
       <c r="GG2" t="n">
-        <v>1.50093129036577e-07</v>
+        <v>0.000466621684608981</v>
       </c>
     </row>
     <row r="3">
